--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pavel/Desktop/PositionWB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1F1297-CCFD-ED4D-9AD2-056D54576EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391E4446-91BB-7547-A201-D0D0D5AB0156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Rates" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rates!$A$1:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rates!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="18">
   <si>
     <t>№</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Ключевик</t>
   </si>
   <si>
-    <t xml:space="preserve">юбка </t>
-  </si>
-  <si>
-    <t xml:space="preserve">юбка карандаш </t>
-  </si>
-  <si>
     <t>юбка с высокой талией</t>
   </si>
   <si>
@@ -64,6 +58,36 @@
   </si>
   <si>
     <t>GU19FWрозовый</t>
+  </si>
+  <si>
+    <t>юбка </t>
+  </si>
+  <si>
+    <t>юбка карандаш </t>
+  </si>
+  <si>
+    <t>юбка в гусиную лапку</t>
+  </si>
+  <si>
+    <t>юбка офисная </t>
+  </si>
+  <si>
+    <t>юбка повседневная</t>
+  </si>
+  <si>
+    <t>юбка мини </t>
+  </si>
+  <si>
+    <t>юбка на каждый день</t>
+  </si>
+  <si>
+    <t>юбка розовая </t>
+  </si>
+  <si>
+    <t>GU19FWчерно-белый</t>
+  </si>
+  <si>
+    <t>юбка черная </t>
   </si>
 </sst>
 </file>
@@ -108,12 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -396,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -409,7 +430,7 @@
     <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -420,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -430,94 +451,319 @@
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="3"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2">
-        <v>18669322</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2"/>
-      <c r="H2" s="4"/>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>18669322</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>18669322</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2">
-        <v>18669322</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>18669322</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4"/>
-      <c r="H4" s="4"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>18669322</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>18669322</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5"/>
-      <c r="H5" s="4"/>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>18669322</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>18669322</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>18669322</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>18669322</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>18669322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
-        <v>18669322</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6"/>
-      <c r="H6" s="4"/>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>18669322</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>18669322</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>18669322</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>9875235</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>9875235</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>9875235</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>9875235</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>9875235</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>9875235</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>9875235</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>9875235</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>9875235</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>9875235</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>9875235</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D6" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D6">
-    <sortCondition ref="B2:B6"/>
-  </sortState>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
